--- a/datosLab2.xlsx
+++ b/datosLab2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVINSTEVEN\Documents\GitHub\Laboratorio-2-Multivariada\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="19920" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>X1</t>
   </si>
@@ -196,13 +201,16 @@
   </si>
   <si>
     <t>Cádiz</t>
+  </si>
+  <si>
+    <t>Provincias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +247,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -285,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +333,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,6 +368,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,17 +544,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -597,7 +620,7 @@
         <v>107334</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -629,7 +652,7 @@
         <v>83523</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -661,7 +684,7 @@
         <v>79924</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -693,7 +716,7 @@
         <v>72813</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -725,7 +748,7 @@
         <v>83070</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -757,7 +780,7 @@
         <v>57311</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -789,7 +812,7 @@
         <v>93971</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -821,7 +844,7 @@
         <v>84514</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -853,7 +876,7 @@
         <v>92103</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -885,7 +908,7 @@
         <v>77938</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -917,7 +940,7 @@
         <v>79718</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -949,7 +972,7 @@
         <v>120856</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -981,7 +1004,7 @@
         <v>131802</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1013,7 +1036,7 @@
         <v>114627</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1068,7 @@
         <v>80959</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1100,7 @@
         <v>105421</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1109,7 +1132,7 @@
         <v>82061</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1164,7 @@
         <v>111224</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1173,7 +1196,7 @@
         <v>146434</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1228,7 @@
         <v>109264</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1237,7 +1260,7 @@
         <v>54442</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1292,7 @@
         <v>116303</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1324,7 @@
         <v>120803</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1333,7 +1356,7 @@
         <v>98430</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1388,7 @@
         <v>125332</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1397,7 +1420,7 @@
         <v>91735</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1429,7 +1452,7 @@
         <v>90886</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1461,7 +1484,7 @@
         <v>103288</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1493,7 +1516,7 @@
         <v>87720</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1525,7 +1548,7 @@
         <v>122189</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1557,7 +1580,7 @@
         <v>99929</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1589,7 +1612,7 @@
         <v>134786</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1621,7 +1644,7 @@
         <v>152924</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1653,7 +1676,7 @@
         <v>114876</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1685,7 +1708,7 @@
         <v>111756</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1717,7 +1740,7 @@
         <v>77370</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1749,7 +1772,7 @@
         <v>96564</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1781,7 +1804,7 @@
         <v>61478</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1813,7 +1836,7 @@
         <v>89736</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1845,7 +1868,7 @@
         <v>108489</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1877,7 +1900,7 @@
         <v>119398</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1909,7 +1932,7 @@
         <v>90184</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1941,7 +1964,7 @@
         <v>100255</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1973,7 +1996,7 @@
         <v>130290</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2005,7 +2028,7 @@
         <v>114457</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2037,7 +2060,7 @@
         <v>156493</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2069,7 +2092,7 @@
         <v>98942</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2101,7 +2124,7 @@
         <v>109995</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -2133,7 +2156,7 @@
         <v>132572</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2165,7 +2188,7 @@
         <v>121844</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2203,24 +2226,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datosLab2.xlsx
+++ b/datosLab2.xlsx
@@ -158,12 +158,6 @@
     <t>Vizcaya</t>
   </si>
   <si>
-    <t>Ciudad Real</t>
-  </si>
-  <si>
-    <t>La Coruña</t>
-  </si>
-  <si>
     <t>Cáceres</t>
   </si>
   <si>
@@ -204,6 +198,12 @@
   </si>
   <si>
     <t>Provincias</t>
+  </si>
+  <si>
+    <t>La_Coruña</t>
+  </si>
+  <si>
+    <t>Ciudad_Real</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>618957</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>683940</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>590770</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>556210</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>617778</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>632640</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>543595</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>623047</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>545912</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>696542</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>496559</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>569808</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B41">
         <v>692445</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>634839</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>678733</v>
